--- a/1. Inicio/1.1.3 Matriz RACI.xlsx
+++ b/1. Inicio/1.1.3 Matriz RACI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Inicio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\1. Inicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F5CEE1-95F7-4D8D-8DED-17800A52860E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3EBC6D-A593-4638-A3AF-13325E21AB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$R$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$R$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="116">
   <si>
     <t>Proyecto</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Seguimiento de Cronograma</t>
   </si>
   <si>
-    <t>Gestión de Comunicaciones</t>
-  </si>
-  <si>
     <t>Control de Alcance</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>1.4.5</t>
   </si>
   <si>
-    <t>1.4.6</t>
-  </si>
-  <si>
     <t>1.5.1</t>
   </si>
   <si>
@@ -287,33 +281,6 @@
     <t>Julian Espina</t>
   </si>
   <si>
-    <t>Paula Muñoz</t>
-  </si>
-  <si>
-    <t>Brad Pinto</t>
-  </si>
-  <si>
-    <t>Gabriel Martinez</t>
-  </si>
-  <si>
-    <t>Gabriel Muñoz</t>
-  </si>
-  <si>
-    <t>Manuel Avila</t>
-  </si>
-  <si>
-    <t>Rodrigo Becerra</t>
-  </si>
-  <si>
-    <t>David Galdames</t>
-  </si>
-  <si>
-    <t>Cristian Toro</t>
-  </si>
-  <si>
-    <t>Ana Saldias</t>
-  </si>
-  <si>
     <t xml:space="preserve"> R: Responsable, A: Aprobador, C: Consultado, I: Informado.</t>
   </si>
   <si>
@@ -338,9 +305,6 @@
     <t>A</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diseño del Sistema</t>
-  </si>
-  <si>
     <t>Modelado de Base de Datos</t>
   </si>
   <si>
@@ -350,18 +314,12 @@
     <t>Diseño de la Arquitectura de Software</t>
   </si>
   <si>
-    <t>Diagrama de Arquitectura del Software (MTV)</t>
-  </si>
-  <si>
     <t>Diagrama de Componentes (UML)</t>
   </si>
   <si>
     <t>Diagrama de Despliegue (UML)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Casos de Uso</t>
-  </si>
-  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -371,18 +329,9 @@
     <t>1.2.2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.2.2 </t>
-  </si>
-  <si>
     <t>1.2.2.3</t>
   </si>
   <si>
-    <t>1.2.2.2.1</t>
-  </si>
-  <si>
-    <t>1.2.8</t>
-  </si>
-  <si>
     <t>1.2.8.1</t>
   </si>
   <si>
@@ -398,10 +347,46 @@
     <t>1.2.8.2.2</t>
   </si>
   <si>
-    <t>1.2.8.2.3</t>
-  </si>
-  <si>
     <t>Plan de Costos</t>
+  </si>
+  <si>
+    <t>P.M</t>
+  </si>
+  <si>
+    <t>B.P</t>
+  </si>
+  <si>
+    <t>G.Mar.</t>
+  </si>
+  <si>
+    <t>G.M</t>
+  </si>
+  <si>
+    <t>M.A</t>
+  </si>
+  <si>
+    <t>R.B</t>
+  </si>
+  <si>
+    <t>D.G</t>
+  </si>
+  <si>
+    <t>A.S</t>
+  </si>
+  <si>
+    <t>C.T</t>
+  </si>
+  <si>
+    <t>Casos de Uso</t>
+  </si>
+  <si>
+    <t>1.2.2.4</t>
+  </si>
+  <si>
+    <t>1.2.8 Diseño del Sistema</t>
+  </si>
+  <si>
+    <t>1.2.2.2</t>
   </si>
 </sst>
 </file>
@@ -585,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -620,6 +605,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,9 +651,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,9 +680,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1644799</xdr:colOff>
+      <xdr:colOff>1646704</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>48261</xdr:rowOff>
+      <xdr:rowOff>50166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1006,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O70"/>
+  <dimension ref="B1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,58 +1026,58 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1108,24 +1094,24 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="2:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -1138,99 +1124,99 @@
         <v>3</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
+      <c r="B8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15" x14ac:dyDescent="0.3">
@@ -1241,40 +1227,40 @@
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15" x14ac:dyDescent="0.3">
@@ -1285,40 +1271,40 @@
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15" x14ac:dyDescent="0.3">
@@ -1329,40 +1315,40 @@
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="15" x14ac:dyDescent="0.3">
@@ -1373,40 +1359,40 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15" x14ac:dyDescent="0.3">
@@ -1417,296 +1403,296 @@
         <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17"/>
+      <c r="B15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="15" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -1717,40 +1703,40 @@
         <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -1761,40 +1747,40 @@
         <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -1805,84 +1791,84 @@
         <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>120</v>
+      <c r="C25" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -1893,666 +1879,640 @@
         <v>32</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="B27" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="21"/>
     </row>
     <row r="28" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B34" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="17"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="18"/>
+    </row>
+    <row r="34" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="21"/>
     </row>
     <row r="35" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="20"/>
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="36" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="B40" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="21"/>
     </row>
     <row r="41" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
+      <c r="B41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="42" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -2560,43 +2520,43 @@
         <v>60</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -2604,343 +2564,343 @@
         <v>61</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="21"/>
+    </row>
+    <row r="46" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="20"/>
-    </row>
-    <row r="47" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="B49" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="18"/>
+    </row>
+    <row r="50" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B50" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="17"/>
+      <c r="C50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="51" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>52</v>
+      <c r="C52" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
@@ -2948,331 +2908,244 @@
         <v>68</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="B54" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="18"/>
+    </row>
+    <row r="55" spans="2:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B56" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="17"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="57" spans="2:15" ht="15" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B59" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="27"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="26"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D68" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="26"/>
+      <c r="E68" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
+  <mergeCells count="17">
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B50:O50"/>
-    <mergeCell ref="B56:O56"/>
-    <mergeCell ref="B35:O35"/>
-    <mergeCell ref="B41:O41"/>
-    <mergeCell ref="B46:O46"/>
+    <mergeCell ref="B49:O49"/>
+    <mergeCell ref="B54:O54"/>
+    <mergeCell ref="B34:O34"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="B45:O45"/>
+    <mergeCell ref="B27:O27"/>
     <mergeCell ref="C2:O4"/>
     <mergeCell ref="D6:O6"/>
     <mergeCell ref="B8:O8"/>
     <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B34:O34"/>
+    <mergeCell ref="B33:O33"/>
     <mergeCell ref="B17:O17"/>
     <mergeCell ref="B2:B4"/>
   </mergeCells>
